--- a/ttests.xlsx
+++ b/ttests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\TEST TEST TEST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\GEM Class Project\Team_GEM_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD65ED5-B8EA-4742-8616-1B3128ED43D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D506AE-5007-48C5-9396-6004487A7055}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18270" yWindow="3270" windowWidth="17280" windowHeight="11130" xr2:uid="{D01CA92E-3329-400E-809C-26152D0A7BC3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D01CA92E-3329-400E-809C-26152D0A7BC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -503,7 +503,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
